--- a/rrd/AppData/ContactAllocation.xlsx
+++ b/rrd/AppData/ContactAllocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC9615-10CA-41ED-9BE8-59D7B98AEF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD97FE8-461A-4AC4-A6BC-3E380D98BC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContactAllocation1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="87">
   <si>
     <t>AccountName</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>Word of mouth</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -743,10 +749,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8AB3-99FC-4A3C-919A-CB40871B1AC9}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,12 +760,13 @@
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,17 +776,20 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -789,13 +799,16 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
     </row>
@@ -806,10 +819,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5992F409-2221-4007-91AA-B6C1DD205F80}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,12 +830,13 @@
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,17 +846,20 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -852,17 +869,20 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
@@ -872,17 +892,20 @@
       <c r="C3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -892,13 +915,16 @@
       <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
@@ -1538,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57393F-A0F7-4437-A034-4D745F47BE42}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
